--- a/template/message.xlsx
+++ b/template/message.xlsx
@@ -1,21 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr date1904="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanglibing/Work/cg/code-generator/template/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF70860-F8EB-0041-A4D5-62BFEEF6D3B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="9580" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#修改履历" sheetId="3" r:id="rId1"/>
     <sheet name="国际化资源模板" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>#</t>
   </si>
@@ -26,7 +40,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>修订内容</t>
     </r>
@@ -38,7 +52,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>作者</t>
     </r>
@@ -50,7 +64,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>承认者</t>
     </r>
@@ -62,7 +76,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>修订日期</t>
     </r>
@@ -74,7 +88,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>修订版本</t>
     </r>
@@ -85,7 +99,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>初版作成</t>
     </r>
@@ -96,7 +110,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>杨利兵</t>
     </r>
@@ -147,29 +161,27 @@
     <t>default</t>
   </si>
   <si>
-    <t>zh_cn</t>
-  </si>
-  <si>
-    <t>en_us</t>
-  </si>
-  <si>
-    <t>en_uk</t>
-  </si>
-  <si>
-    <t>ja_jp</t>
+    <t>zh_CN</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>en_US</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>en_UK</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ja_JP</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -180,25 +192,27 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -206,161 +220,22 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -397,194 +272,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -661,258 +350,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -926,118 +373,74 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="2" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="3" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="4" builtinId="41"/>
-    <cellStyle name="输入" xfId="5" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="7" builtinId="38"/>
-    <cellStyle name="货币" xfId="8" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="9" builtinId="37"/>
-    <cellStyle name="百分比" xfId="10" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="11" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="12" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="13" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="14" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="15" builtinId="44"/>
-    <cellStyle name="计算" xfId="16" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29"/>
-    <cellStyle name="适中" xfId="18" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="19" builtinId="46"/>
-    <cellStyle name="好" xfId="20" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="21" builtinId="30"/>
-    <cellStyle name="汇总" xfId="22" builtinId="25"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="26" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="27" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="28" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="30" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="32" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="33" builtinId="9"/>
-    <cellStyle name="标题" xfId="34" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="35" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="36" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="37" builtinId="40"/>
-    <cellStyle name="注释" xfId="38" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="40" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="41" builtinId="51"/>
-    <cellStyle name="超链接" xfId="42" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="43" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="44" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="46" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="49" builtinId="24"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
@@ -1110,6 +513,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2319,849 +1725,847 @@
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:G55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:IV55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection/>
-      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.1973684210526" defaultRowHeight="17.6" outlineLevelCol="6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.25" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.79605263157895" style="12" customWidth="1"/>
-    <col min="2" max="2" width="19.0789473684211" style="12" customWidth="1"/>
-    <col min="3" max="3" width="12.1644736842105" style="12" customWidth="1"/>
-    <col min="4" max="4" width="11.2894736842105" style="12" customWidth="1"/>
-    <col min="5" max="5" width="9.90131578947368" style="12" customWidth="1"/>
-    <col min="6" max="6" width="7.5" style="12" customWidth="1"/>
-    <col min="7" max="7" width="6.79605263157895" style="12" customWidth="1"/>
-    <col min="8" max="256" width="12.1973684210526" style="12" customWidth="1"/>
-    <col min="257" max="16384" width="12.1973684210526" style="13"/>
+    <col min="1" max="1" width="2.75" style="8" customWidth="1"/>
+    <col min="2" max="2" width="19.125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="12.125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="11.25" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9.875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="7.5" style="8" customWidth="1"/>
+    <col min="7" max="7" width="6.75" style="8" customWidth="1"/>
+    <col min="8" max="256" width="12.25" style="8" customWidth="1"/>
+    <col min="257" max="16384" width="12.25" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="1" ht="15" spans="1:7">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:7" s="8" customFormat="1">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14"/>
-    </row>
-    <row r="2" s="12" customFormat="1" ht="14.4" spans="1:7">
-      <c r="A2" s="16">
+      <c r="G1" s="10"/>
+    </row>
+    <row r="2" spans="1:7" s="8" customFormat="1" ht="14">
+      <c r="A2" s="12">
         <f t="shared" ref="A2:A21" si="0">ROW()-1</f>
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="23">
+      <c r="D2" s="15"/>
+      <c r="E2" s="19">
         <v>40703</v>
       </c>
-      <c r="F2" s="22">
+      <c r="F2" s="18">
         <v>0.1</v>
       </c>
-      <c r="G2" s="22"/>
-    </row>
-    <row r="3" s="12" customFormat="1" ht="15" spans="1:7">
-      <c r="A3" s="16">
+      <c r="G2" s="18"/>
+    </row>
+    <row r="3" spans="1:7" s="8" customFormat="1">
+      <c r="A3" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="23">
+      <c r="D3" s="15"/>
+      <c r="E3" s="19">
         <v>41391</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="18">
         <v>0.2</v>
       </c>
-      <c r="G3" s="22"/>
-    </row>
-    <row r="4" s="12" customFormat="1" spans="1:7">
-      <c r="A4" s="16">
+      <c r="G3" s="18"/>
+    </row>
+    <row r="4" spans="1:7" s="8" customFormat="1">
+      <c r="A4" s="12">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-    </row>
-    <row r="5" s="12" customFormat="1" spans="1:7">
-      <c r="A5" s="16">
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+    </row>
+    <row r="5" spans="1:7" s="8" customFormat="1">
+      <c r="A5" s="12">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-    </row>
-    <row r="6" s="12" customFormat="1" spans="1:7">
-      <c r="A6" s="16">
+      <c r="B5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+    </row>
+    <row r="6" spans="1:7" s="8" customFormat="1">
+      <c r="A6" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-    </row>
-    <row r="7" s="12" customFormat="1" spans="1:7">
-      <c r="A7" s="16">
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+    </row>
+    <row r="7" spans="1:7" s="8" customFormat="1">
+      <c r="A7" s="12">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-    </row>
-    <row r="8" s="12" customFormat="1" spans="1:7">
-      <c r="A8" s="16">
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+    </row>
+    <row r="8" spans="1:7" s="8" customFormat="1">
+      <c r="A8" s="12">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-    </row>
-    <row r="9" s="12" customFormat="1" spans="1:7">
-      <c r="A9" s="16">
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+    </row>
+    <row r="9" spans="1:7" s="8" customFormat="1">
+      <c r="A9" s="12">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-    </row>
-    <row r="10" s="12" customFormat="1" spans="1:7">
-      <c r="A10" s="16">
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+    </row>
+    <row r="10" spans="1:7" s="8" customFormat="1">
+      <c r="A10" s="12">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-    </row>
-    <row r="11" s="12" customFormat="1" spans="1:7">
-      <c r="A11" s="16">
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+    </row>
+    <row r="11" spans="1:7" s="8" customFormat="1">
+      <c r="A11" s="12">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-    </row>
-    <row r="12" s="12" customFormat="1" spans="1:7">
-      <c r="A12" s="16">
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+    </row>
+    <row r="12" spans="1:7" s="8" customFormat="1">
+      <c r="A12" s="12">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-    </row>
-    <row r="13" s="12" customFormat="1" spans="1:7">
-      <c r="A13" s="16">
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+    </row>
+    <row r="13" spans="1:7" s="8" customFormat="1">
+      <c r="A13" s="12">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-    </row>
-    <row r="14" s="12" customFormat="1" spans="1:7">
-      <c r="A14" s="16">
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+    </row>
+    <row r="14" spans="1:7" s="8" customFormat="1">
+      <c r="A14" s="12">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-    </row>
-    <row r="15" s="12" customFormat="1" spans="1:7">
-      <c r="A15" s="16">
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+    </row>
+    <row r="15" spans="1:7" s="8" customFormat="1">
+      <c r="A15" s="12">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-    </row>
-    <row r="16" s="12" customFormat="1" spans="1:7">
-      <c r="A16" s="16">
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+    </row>
+    <row r="16" spans="1:7" s="8" customFormat="1">
+      <c r="A16" s="12">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-    </row>
-    <row r="17" s="12" customFormat="1" spans="1:7">
-      <c r="A17" s="16">
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+    </row>
+    <row r="17" spans="1:7" s="8" customFormat="1">
+      <c r="A17" s="12">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-    </row>
-    <row r="18" s="12" customFormat="1" spans="1:7">
-      <c r="A18" s="16">
+      <c r="B17" s="13"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+    </row>
+    <row r="18" spans="1:7" s="8" customFormat="1">
+      <c r="A18" s="12">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-    </row>
-    <row r="19" s="12" customFormat="1" spans="1:7">
-      <c r="A19" s="16">
+      <c r="B18" s="16"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+    </row>
+    <row r="19" spans="1:7" s="8" customFormat="1">
+      <c r="A19" s="12">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-    </row>
-    <row r="20" s="12" customFormat="1" spans="1:7">
-      <c r="A20" s="16">
+      <c r="B19" s="13"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+    </row>
+    <row r="20" spans="1:7" s="8" customFormat="1">
+      <c r="A20" s="12">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-    </row>
-    <row r="21" s="12" customFormat="1" spans="1:7">
-      <c r="A21" s="16">
+      <c r="B20" s="13"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+    </row>
+    <row r="21" spans="1:7" s="8" customFormat="1">
+      <c r="A21" s="12">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-    </row>
-    <row r="22" s="12" customFormat="1" spans="1:7">
-      <c r="A22" s="16"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-    </row>
-    <row r="23" s="12" customFormat="1" spans="1:7">
-      <c r="A23" s="16"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-    </row>
-    <row r="24" s="12" customFormat="1" spans="1:7">
-      <c r="A24" s="16"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-    </row>
-    <row r="25" s="12" customFormat="1" spans="1:7">
-      <c r="A25" s="16"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-    </row>
-    <row r="26" s="12" customFormat="1" spans="1:7">
-      <c r="A26" s="16"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-    </row>
-    <row r="27" s="12" customFormat="1" spans="1:7">
-      <c r="A27" s="16"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-    </row>
-    <row r="28" s="12" customFormat="1" spans="1:7">
-      <c r="A28" s="16"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-    </row>
-    <row r="29" s="12" customFormat="1" spans="1:7">
-      <c r="A29" s="16"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-    </row>
-    <row r="30" s="12" customFormat="1" spans="1:7">
-      <c r="A30" s="16"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-    </row>
-    <row r="31" s="12" customFormat="1" spans="1:7">
-      <c r="A31" s="16"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-    </row>
-    <row r="32" s="12" customFormat="1" spans="1:7">
-      <c r="A32" s="16"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-    </row>
-    <row r="33" s="12" customFormat="1" spans="1:7">
-      <c r="A33" s="16"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-    </row>
-    <row r="34" s="12" customFormat="1" spans="1:7">
-      <c r="A34" s="16"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-    </row>
-    <row r="35" s="12" customFormat="1" spans="1:7">
-      <c r="A35" s="16"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-    </row>
-    <row r="36" s="12" customFormat="1" spans="1:7">
-      <c r="A36" s="16"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-    </row>
-    <row r="37" s="12" customFormat="1" spans="1:7">
-      <c r="A37" s="16"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-    </row>
-    <row r="38" s="12" customFormat="1" spans="1:7">
-      <c r="A38" s="16"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-    </row>
-    <row r="39" s="12" customFormat="1" spans="1:7">
-      <c r="A39" s="16"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-    </row>
-    <row r="40" s="12" customFormat="1" spans="1:7">
-      <c r="A40" s="16"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-    </row>
-    <row r="41" s="12" customFormat="1" spans="1:7">
-      <c r="A41" s="16"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-    </row>
-    <row r="42" s="12" customFormat="1" spans="1:7">
-      <c r="A42" s="16"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-    </row>
-    <row r="43" s="12" customFormat="1" spans="1:7">
-      <c r="A43" s="16"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-    </row>
-    <row r="44" s="12" customFormat="1" spans="1:7">
-      <c r="A44" s="16"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-    </row>
-    <row r="45" s="12" customFormat="1" spans="1:7">
-      <c r="A45" s="16"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
-    </row>
-    <row r="46" s="12" customFormat="1" spans="1:7">
-      <c r="A46" s="16"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-    </row>
-    <row r="47" s="12" customFormat="1" spans="1:7">
-      <c r="A47" s="16"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-    </row>
-    <row r="48" s="12" customFormat="1" ht="14.4" spans="1:7">
-      <c r="A48" s="16"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
-    </row>
-    <row r="49" s="12" customFormat="1" ht="14.4" spans="1:7">
-      <c r="A49" s="16"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
-    </row>
-    <row r="50" s="12" customFormat="1" ht="14.4" spans="1:7">
-      <c r="A50" s="16"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
-    </row>
-    <row r="51" s="12" customFormat="1" ht="14.4" spans="1:7">
-      <c r="A51" s="16"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="22"/>
-    </row>
-    <row r="52" s="12" customFormat="1" ht="14.4" spans="1:7">
-      <c r="A52" s="16"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="22"/>
-    </row>
-    <row r="53" s="12" customFormat="1" ht="14.4" spans="1:7">
-      <c r="A53" s="16"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="22"/>
-    </row>
-    <row r="54" s="12" customFormat="1" ht="14.4" spans="1:7">
-      <c r="A54" s="16"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="22"/>
-    </row>
-    <row r="55" s="12" customFormat="1" ht="14.4" spans="1:7">
-      <c r="A55" s="16"/>
-      <c r="B55" s="20"/>
-      <c r="C55" s="21"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="22"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+    </row>
+    <row r="22" spans="1:7" s="8" customFormat="1">
+      <c r="A22" s="12"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+    </row>
+    <row r="23" spans="1:7" s="8" customFormat="1">
+      <c r="A23" s="12"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+    </row>
+    <row r="24" spans="1:7" s="8" customFormat="1">
+      <c r="A24" s="12"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+    </row>
+    <row r="25" spans="1:7" s="8" customFormat="1">
+      <c r="A25" s="12"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+    </row>
+    <row r="26" spans="1:7" s="8" customFormat="1">
+      <c r="A26" s="12"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+    </row>
+    <row r="27" spans="1:7" s="8" customFormat="1">
+      <c r="A27" s="12"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+    </row>
+    <row r="28" spans="1:7" s="8" customFormat="1">
+      <c r="A28" s="12"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+    </row>
+    <row r="29" spans="1:7" s="8" customFormat="1">
+      <c r="A29" s="12"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+    </row>
+    <row r="30" spans="1:7" s="8" customFormat="1">
+      <c r="A30" s="12"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+    </row>
+    <row r="31" spans="1:7" s="8" customFormat="1">
+      <c r="A31" s="12"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+    </row>
+    <row r="32" spans="1:7" s="8" customFormat="1">
+      <c r="A32" s="12"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+    </row>
+    <row r="33" spans="1:7" s="8" customFormat="1">
+      <c r="A33" s="12"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+    </row>
+    <row r="34" spans="1:7" s="8" customFormat="1">
+      <c r="A34" s="12"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+    </row>
+    <row r="35" spans="1:7" s="8" customFormat="1">
+      <c r="A35" s="12"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+    </row>
+    <row r="36" spans="1:7" s="8" customFormat="1">
+      <c r="A36" s="12"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+    </row>
+    <row r="37" spans="1:7" s="8" customFormat="1">
+      <c r="A37" s="12"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+    </row>
+    <row r="38" spans="1:7" s="8" customFormat="1">
+      <c r="A38" s="12"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+    </row>
+    <row r="39" spans="1:7" s="8" customFormat="1">
+      <c r="A39" s="12"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+    </row>
+    <row r="40" spans="1:7" s="8" customFormat="1">
+      <c r="A40" s="12"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+    </row>
+    <row r="41" spans="1:7" s="8" customFormat="1">
+      <c r="A41" s="12"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+    </row>
+    <row r="42" spans="1:7" s="8" customFormat="1">
+      <c r="A42" s="12"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+    </row>
+    <row r="43" spans="1:7" s="8" customFormat="1">
+      <c r="A43" s="12"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+    </row>
+    <row r="44" spans="1:7" s="8" customFormat="1">
+      <c r="A44" s="12"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+    </row>
+    <row r="45" spans="1:7" s="8" customFormat="1">
+      <c r="A45" s="12"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+    </row>
+    <row r="46" spans="1:7" s="8" customFormat="1">
+      <c r="A46" s="12"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+    </row>
+    <row r="47" spans="1:7" s="8" customFormat="1">
+      <c r="A47" s="12"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+    </row>
+    <row r="48" spans="1:7" s="8" customFormat="1" ht="14">
+      <c r="A48" s="12"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+    </row>
+    <row r="49" spans="1:7" s="8" customFormat="1" ht="14">
+      <c r="A49" s="12"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+    </row>
+    <row r="50" spans="1:7" s="8" customFormat="1" ht="14">
+      <c r="A50" s="12"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+    </row>
+    <row r="51" spans="1:7" s="8" customFormat="1" ht="14">
+      <c r="A51" s="12"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
+    </row>
+    <row r="52" spans="1:7" s="8" customFormat="1" ht="14">
+      <c r="A52" s="12"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
+    </row>
+    <row r="53" spans="1:7" s="8" customFormat="1" ht="14">
+      <c r="A53" s="12"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+    </row>
+    <row r="54" spans="1:7" s="8" customFormat="1" ht="14">
+      <c r="A54" s="12"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18"/>
+    </row>
+    <row r="55" spans="1:7" s="8" customFormat="1" ht="14">
+      <c r="A55" s="12"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:K12"/>
+  <dimension ref="A1:IV12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozenSplit"/>
-      <selection/>
       <selection pane="topRight" activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.1973684210526" defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.25" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="0.197368421052632" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.90131578947368" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.4013157894737" style="1" customWidth="1"/>
+    <col min="1" max="1" width="0.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1973684210526" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.4013157894737" style="1" customWidth="1"/>
-    <col min="8" max="256" width="12.1973684210526" style="1" customWidth="1"/>
-    <col min="257" max="16384" width="12.1973684210526" style="2"/>
+    <col min="6" max="6" width="12.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.375" style="1" customWidth="1"/>
+    <col min="8" max="256" width="12.25" style="1" customWidth="1"/>
+    <col min="257" max="16384" width="12.25" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="2.1" customHeight="1"/>
-    <row r="2" ht="20.45" customHeight="1" spans="2:11">
-      <c r="B2" s="3" t="s">
+    <row r="1" spans="2:11" ht="2" customHeight="1"/>
+    <row r="2" spans="2:11" ht="20.5" customHeight="1">
+      <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="10" t="s">
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-    </row>
-    <row r="3" ht="20.45" customHeight="1" spans="2:11">
-      <c r="B3" s="6"/>
-      <c r="C3" s="7" t="s">
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+    </row>
+    <row r="3" spans="2:11" ht="20.5" customHeight="1">
+      <c r="B3" s="24"/>
+      <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" ht="20.45" customHeight="1" spans="2:11">
+    <row r="4" spans="2:11" ht="20.5" customHeight="1">
       <c r="B4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" ht="20.45" customHeight="1" spans="2:11">
-      <c r="B5" s="8">
+    <row r="5" spans="2:11" ht="20.5" customHeight="1">
+      <c r="B5" s="5">
         <f>ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-    </row>
-    <row r="6" ht="20.45" customHeight="1" spans="2:11">
-      <c r="B6" s="8">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="2:11" ht="20.5" customHeight="1">
+      <c r="B6" s="5">
         <f t="shared" ref="B6:B12" si="0">ROW()-4</f>
         <v>2</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-    </row>
-    <row r="7" ht="20.45" customHeight="1" spans="2:11">
-      <c r="B7" s="8">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="2:11" ht="20.5" customHeight="1">
+      <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-    </row>
-    <row r="8" ht="20.45" customHeight="1" spans="2:11">
-      <c r="B8" s="8">
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="2:11" ht="20.5" customHeight="1">
+      <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-    </row>
-    <row r="9" ht="20.45" customHeight="1" spans="2:11">
-      <c r="B9" s="8">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="2:11" ht="20.5" customHeight="1">
+      <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-    </row>
-    <row r="10" ht="20.45" customHeight="1" spans="2:11">
-      <c r="B10" s="8">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="2:11" ht="20.5" customHeight="1">
+      <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-    </row>
-    <row r="11" ht="20.45" customHeight="1" spans="2:11">
-      <c r="B11" s="8">
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="2:11" ht="20.5" customHeight="1">
+      <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-    </row>
-    <row r="12" ht="20.45" customHeight="1" spans="2:11">
-      <c r="B12" s="8">
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" spans="2:11" ht="20.5" customHeight="1">
+      <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3169,8 +2573,9 @@
     <mergeCell ref="F2:K2"/>
     <mergeCell ref="B2:B3"/>
   </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>

--- a/template/message.xlsx
+++ b/template/message.xlsx
@@ -1,27 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10510"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanglibing/Work/cg/code-generator/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF70860-F8EB-0041-A4D5-62BFEEF6D3B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B40CC4-4A66-BC41-917D-6A6ADA70D0C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1460" yWindow="460" windowWidth="26660" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#修改履历" sheetId="3" r:id="rId1"/>
-    <sheet name="国际化资源模板" sheetId="2" r:id="rId2"/>
+    <sheet name="Message" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>#</t>
   </si>
@@ -116,37 +118,10 @@
     </r>
   </si>
   <si>
-    <t>添加约束及自增长属性设置</t>
-  </si>
-  <si>
-    <t>基本信息</t>
-  </si>
-  <si>
-    <t>国际化</t>
-  </si>
-  <si>
-    <t>资源ID</t>
-  </si>
-  <si>
-    <t>说明</t>
-  </si>
-  <si>
-    <t>使用处</t>
-  </si>
-  <si>
     <t>默认</t>
   </si>
   <si>
     <t>中文（中国）</t>
-  </si>
-  <si>
-    <t>英文（美国）</t>
-  </si>
-  <si>
-    <t>英文（英国）</t>
-  </si>
-  <si>
-    <t>日语（日本）</t>
   </si>
   <si>
     <t>在此添加其它语言</t>
@@ -161,27 +136,70 @@
     <t>default</t>
   </si>
   <si>
-    <t>zh_CN</t>
+    <t>添加翻译状态等信息</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>en_US</t>
+    <t>zh-CN</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>en_UK</t>
+    <t>en-US</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>ja_JP</t>
+    <t>en-GB</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ja-JP</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Translation status</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Basic Information</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resource ID</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use in</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Languages</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>English (United States)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>English (UK)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Japanese (Japan)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -233,6 +251,13 @@
       <sz val="9"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="SimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="7">
@@ -359,7 +384,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -420,19 +445,25 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1798,14 +1829,14 @@
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="15"/>
       <c r="E3" s="19">
-        <v>41391</v>
+        <v>42519</v>
       </c>
       <c r="F3" s="18">
         <v>0.2</v>
@@ -2346,11 +2377,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV12"/>
+  <dimension ref="A1:IW24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozenSplit"/>
-      <selection pane="topRight" activeCell="B2" sqref="B2:B3"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.25" defaultRowHeight="18" customHeight="1"/>
@@ -2359,95 +2390,102 @@
     <col min="2" max="2" width="4.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.375" style="1" customWidth="1"/>
-    <col min="8" max="256" width="12.25" style="1" customWidth="1"/>
-    <col min="257" max="16384" width="12.25" style="2"/>
+    <col min="5" max="5" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" style="1" customWidth="1"/>
+    <col min="7" max="12" width="16.625" style="1" customWidth="1"/>
+    <col min="13" max="257" width="12.25" style="1" customWidth="1"/>
+    <col min="258" max="16384" width="12.25" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="2" customHeight="1"/>
-    <row r="2" spans="2:11" ht="20.5" customHeight="1">
-      <c r="B2" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="20" t="s">
+    <row r="1" spans="2:12" ht="2" customHeight="1"/>
+    <row r="2" spans="2:12" ht="20.5" customHeight="1">
+      <c r="B2" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+    </row>
+    <row r="3" spans="2:12" ht="20.5" customHeight="1">
+      <c r="B3" s="22"/>
+      <c r="C3" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="22" t="s">
+      <c r="I3" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-    </row>
-    <row r="3" spans="2:11" ht="20.5" customHeight="1">
-      <c r="B3" s="24"/>
-      <c r="C3" s="4" t="s">
+    </row>
+    <row r="4" spans="2:12" ht="20.5" customHeight="1">
+      <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="I4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" ht="20.5" customHeight="1">
-      <c r="B4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="20.5" customHeight="1">
+      <c r="L4" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="20.5" customHeight="1">
       <c r="B5" s="5">
         <f>ROW()-4</f>
         <v>1</v>
@@ -2461,10 +2499,11 @@
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
-    </row>
-    <row r="6" spans="2:11" ht="20.5" customHeight="1">
+      <c r="L5" s="6"/>
+    </row>
+    <row r="6" spans="2:12" ht="20.5" customHeight="1">
       <c r="B6" s="5">
-        <f t="shared" ref="B6:B12" si="0">ROW()-4</f>
+        <f t="shared" ref="B6:B24" si="0">ROW()-4</f>
         <v>2</v>
       </c>
       <c r="C6" s="6"/>
@@ -2476,8 +2515,9 @@
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
-    </row>
-    <row r="7" spans="2:11" ht="20.5" customHeight="1">
+      <c r="L6" s="6"/>
+    </row>
+    <row r="7" spans="2:12" ht="20.5" customHeight="1">
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2491,8 +2531,9 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
-    </row>
-    <row r="8" spans="2:11" ht="20.5" customHeight="1">
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" spans="2:12" ht="20.5" customHeight="1">
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2506,8 +2547,9 @@
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
-    </row>
-    <row r="9" spans="2:11" ht="20.5" customHeight="1">
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="2:12" ht="20.5" customHeight="1">
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2521,8 +2563,9 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
-    </row>
-    <row r="10" spans="2:11" ht="20.5" customHeight="1">
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" spans="2:12" ht="20.5" customHeight="1">
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2536,8 +2579,9 @@
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
-    </row>
-    <row r="11" spans="2:11" ht="20.5" customHeight="1">
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" spans="2:12" ht="20.5" customHeight="1">
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2551,8 +2595,9 @@
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
-    </row>
-    <row r="12" spans="2:11" ht="20.5" customHeight="1">
+      <c r="L11" s="6"/>
+    </row>
+    <row r="12" spans="2:12" ht="20.5" customHeight="1">
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2566,14 +2611,212 @@
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+    </row>
+    <row r="13" spans="2:12" ht="20.5" customHeight="1">
+      <c r="B13" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+    </row>
+    <row r="14" spans="2:12" ht="20.5" customHeight="1">
+      <c r="B14" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+    </row>
+    <row r="15" spans="2:12" ht="20.5" customHeight="1">
+      <c r="B15" s="5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+    </row>
+    <row r="16" spans="2:12" ht="20.5" customHeight="1">
+      <c r="B16" s="5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+    </row>
+    <row r="17" spans="2:12" ht="20.5" customHeight="1">
+      <c r="B17" s="5">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+    </row>
+    <row r="18" spans="2:12" ht="20.5" customHeight="1">
+      <c r="B18" s="5">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+    </row>
+    <row r="19" spans="2:12" ht="20.5" customHeight="1">
+      <c r="B19" s="5">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+    </row>
+    <row r="20" spans="2:12" ht="20.5" customHeight="1">
+      <c r="B20" s="5">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+    </row>
+    <row r="21" spans="2:12" ht="20.5" customHeight="1">
+      <c r="B21" s="5">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+    </row>
+    <row r="22" spans="2:12" ht="20.5" customHeight="1">
+      <c r="B22" s="5">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+    </row>
+    <row r="23" spans="2:12" ht="20.5" customHeight="1">
+      <c r="B23" s="5">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+    </row>
+    <row r="24" spans="2:12" ht="20.5" customHeight="1">
+      <c r="B24" s="5">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:L2"/>
     <mergeCell ref="B2:B3"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F24" xr:uid="{9D461866-08AF-0841-B982-875AC9855CA0}">
+      <formula1>"Not translated"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
